--- a/askov.xlsx
+++ b/askov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brune\OneDrive\Documentos\PythonScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="553" documentId="D569BD69EC875D349E219C537DB132D570F4FE1B" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{484C0CC4-BE62-438E-BE21-6123139A9271}"/>
+  <xr:revisionPtr revIDLastSave="555" documentId="D569BD69EC875D349E219C537DB132D570F4FE1B" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{6BBB16BB-880E-4478-A559-7E5484CE7A81}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="477">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1617,7 +1617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1628,6 +1628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1968,7 +1969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A266" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B303" sqref="B303"/>
     </sheetView>
   </sheetViews>
@@ -4397,7 +4398,7 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4410,6 +4411,9 @@
       <c r="A1" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6013,5 +6017,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>